--- a/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>RAYT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,66 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -723,8 +734,8 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
+      <c r="F8" s="3">
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -732,17 +743,26 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -767,11 +787,20 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -796,11 +825,20 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +850,11 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -838,11 +879,20 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +920,17 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -896,22 +955,31 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -928,8 +996,17 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,37 +1015,49 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,28 +1065,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1107,11 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1020,8 +1121,8 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1029,8 +1130,8 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1038,8 +1139,17 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1047,39 +1157,48 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1087,8 +1206,8 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1096,37 +1215,55 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1291,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1329,93 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1443,17 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1481,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1519,17 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1557,17 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1368,8 +1577,8 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1377,8 +1586,8 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1386,37 +1595,55 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1671,98 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1774,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1790,11 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1560,10 +1820,19 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,22 +1860,31 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -1620,8 +1898,17 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1936,17 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1666,67 +1962,85 @@
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>200</v>
+      </c>
+      <c r="G47" s="3">
         <v>300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>1800</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
@@ -1736,37 +2050,55 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>900</v>
+      </c>
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2126,17 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2164,17 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,26 +2202,35 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>11700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
         <v>1800</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1881,8 +2240,17 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2278,55 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G54" s="3">
         <v>13000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>4700</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2338,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2354,11 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,37 +2386,55 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2043,8 +2453,8 @@
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -2052,37 +2462,55 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2090,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2110,8 +2538,17 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2576,17 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2614,17 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2652,17 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2690,55 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>200</v>
+      </c>
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2750,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2782,17 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2820,17 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2858,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2896,55 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-2300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-2000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-1300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-1200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-1200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2972,17 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +3010,17 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +3048,55 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G76" s="3">
         <v>12900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>4600</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +3124,98 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3227,11 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2646,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -2663,8 +3259,17 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3297,17 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3335,17 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3373,17 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3411,17 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,16 +3449,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -2826,7 +3476,7 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -2835,10 +3485,19 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3509,11 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3541,17 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3579,17 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3617,55 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3677,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3709,17 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3747,17 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3785,17 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,66 +3823,93 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3935,15 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>RAYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,11 +747,11 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -759,10 +763,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -796,11 +803,14 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,11 +844,14 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -888,11 +902,14 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -964,26 +984,29 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,8 +1044,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1027,20 +1054,20 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1051,13 +1078,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,22 +1095,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1089,13 +1119,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1130,11 +1164,11 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1148,8 +1182,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1157,37 +1194,40 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1197,8 +1237,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1206,11 +1246,11 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1224,8 +1264,11 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1233,37 +1276,40 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,8 +1387,11 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1347,37 +1399,40 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1385,37 +1440,40 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1586,11 +1656,11 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1604,8 +1674,11 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1613,37 +1686,40 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,8 +1756,11 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1689,80 +1768,86 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,8 +1879,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1829,10 +1916,13 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1884,31 +1977,34 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,46 +2041,52 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1998,7 +2100,7 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -2010,19 +2112,22 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2033,17 +2138,17 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2059,8 +2164,11 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2068,20 +2176,20 @@
         <v>800</v>
       </c>
       <c r="E48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F48" s="3">
         <v>900</v>
       </c>
       <c r="G48" s="3">
+        <v>900</v>
+      </c>
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
@@ -2091,14 +2199,17 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2226,14 +2346,14 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>11700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,8 +2410,11 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2296,37 +2422,40 @@
         <v>900</v>
       </c>
       <c r="E54" s="3">
+        <v>900</v>
+      </c>
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4700</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2404,28 +2538,28 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -2433,8 +2567,11 @@
       <c r="N58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2462,17 +2599,20 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2480,28 +2620,28 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
@@ -2509,8 +2649,11 @@
       <c r="N60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2518,11 +2661,11 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2547,31 +2690,34 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,8 +2854,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2714,22 +2872,22 @@
         <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,8 +3076,11 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2914,28 +3088,28 @@
         <v>-2800</v>
       </c>
       <c r="E72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-1200</v>
       </c>
       <c r="K72" s="3">
         <v>-1200</v>
       </c>
       <c r="L72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="M72" s="3">
         <v>-1100</v>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,8 +3240,11 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3066,37 +3252,40 @@
         <v>700</v>
       </c>
       <c r="E76" s="3">
+        <v>700</v>
+      </c>
+      <c r="F76" s="3">
         <v>800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4600</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
       </c>
       <c r="L76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M76" s="3">
         <v>-100</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,51 +3322,57 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3185,37 +3380,40 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3242,11 +3441,11 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3473,31 +3690,34 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3637,35 +3867,38 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3844,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -3853,25 +4099,28 @@
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3887,8 +4136,8 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
@@ -3899,8 +4148,8 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -3908,8 +4157,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3944,6 +4196,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>RAYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,85 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>500</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -745,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -766,15 +773,21 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>300</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -785,8 +798,8 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -806,16 +819,22 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -826,8 +845,8 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>200</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -847,11 +866,17 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +892,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -905,11 +932,17 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,31 +982,37 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -987,31 +1026,37 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>100</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1031,8 +1076,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,35 +1096,37 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1081,54 +1134,66 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
       <c r="G18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,13 +1209,15 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>400</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1167,14 +1234,14 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1185,37 +1252,43 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>200</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -1224,10 +1297,16 @@
         <v>-100</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1240,23 +1319,23 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1267,37 +1346,43 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -1306,10 +1391,16 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1440,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,37 +1487,43 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -1429,39 +1532,45 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -1470,10 +1579,16 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,13 +1769,19 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1659,14 +1798,14 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1677,37 +1816,43 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -1716,10 +1861,16 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,37 +1910,43 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
@@ -1798,56 +1955,68 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,16 +2051,18 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1919,10 +2092,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,16 +2141,22 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -1980,54 +2165,60 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2044,57 +2235,69 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -2103,10 +2306,10 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -2115,19 +2318,25 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2141,20 +2350,20 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2167,72 +2376,84 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E48" s="3">
         <v>800</v>
       </c>
       <c r="F48" s="3">
+        <v>800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>800</v>
+      </c>
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2249,8 +2470,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2564,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2349,17 +2588,17 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>11700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2372,8 +2611,14 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2658,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F54" s="3">
         <v>900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>13000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4700</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,31 +2747,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2529,8 +2790,14 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2538,10 +2805,10 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -2550,36 +2817,42 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2602,28 +2875,34 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -2632,28 +2911,34 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>100</v>
-      </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2664,13 +2949,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2693,8 +2978,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2719,11 +3010,11 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -2734,8 +3025,14 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,16 +3166,22 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>3400</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
@@ -2875,31 +3190,37 @@
         <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
+        <v>100</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
-        <v>100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>100</v>
-      </c>
       <c r="O66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3420,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-1100</v>
       </c>
       <c r="O72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3608,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>800</v>
+      </c>
+      <c r="F76" s="3">
         <v>700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>12900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4600</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,83 +3702,95 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
@@ -3410,10 +3799,16 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3824,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3444,13 +3841,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -3470,8 +3867,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,13 +4102,19 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -3690,16 +4123,16 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H89" s="3">
+        <v>300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -3708,16 +4141,22 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,31 +4172,33 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3774,8 +4215,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4309,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,13 +4563,19 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4093,34 +4584,40 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4139,11 +4636,11 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
@@ -4151,17 +4648,23 @@
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4175,10 +4678,10 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -4199,6 +4702,12 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>RAYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,113 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -779,31 +783,34 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -825,32 +832,35 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -872,11 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -938,11 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,8 +1034,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1032,34 +1052,37 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,17 +1124,18 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
@@ -1116,20 +1143,20 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1140,45 +1167,48 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -1187,13 +1217,16 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,17 +1244,18 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1240,11 +1274,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1258,55 +1292,61 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1325,8 +1365,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1334,11 +1374,11 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1352,8 +1392,11 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1364,43 +1407,46 @@
         <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>100</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>100</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,17 +1842,20 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1804,11 +1874,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -1822,55 +1892,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>100</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>100</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2062,11 +2149,11 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2098,10 +2185,13 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,20 +2237,23 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
@@ -2171,42 +2264,45 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+      <c r="F44" s="3">
+        <v>500</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
@@ -2220,8 +2316,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2241,16 +2337,19 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -2267,41 +2366,44 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
@@ -2312,7 +2414,7 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -2324,24 +2426,27 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2356,17 +2461,17 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2382,16 +2487,19 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>900</v>
-      </c>
-      <c r="E48" s="3">
-        <v>800</v>
       </c>
       <c r="F48" s="3">
         <v>800</v>
@@ -2400,20 +2508,20 @@
         <v>800</v>
       </c>
       <c r="H48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I48" s="3">
         <v>900</v>
       </c>
       <c r="J48" s="3">
+        <v>900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
@@ -2423,26 +2531,29 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E49" s="3">
         <v>2500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2455,8 +2566,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2594,14 +2714,14 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>11700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E54" s="3">
         <v>4400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>900</v>
       </c>
       <c r="G54" s="3">
         <v>900</v>
       </c>
       <c r="H54" s="3">
+        <v>900</v>
+      </c>
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4700</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,19 +2879,20 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="F57" s="3">
+        <v>100</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
@@ -2775,8 +2906,8 @@
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2796,67 +2927,73 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
@@ -2881,64 +3018,70 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
-        <v>100</v>
-      </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
-        <v>100</v>
-      </c>
       <c r="P60" s="3">
         <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2955,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2984,31 +3127,34 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3016,8 +3162,8 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,19 +3327,22 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
@@ -3196,31 +3354,34 @@
         <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
-        <v>100</v>
-      </c>
       <c r="P66" s="3">
         <v>100</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,46 +3597,49 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4600</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-2800</v>
       </c>
       <c r="G72" s="3">
         <v>-2800</v>
       </c>
       <c r="H72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I72" s="3">
         <v>-2700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-1200</v>
       </c>
       <c r="N72" s="3">
         <v>-1200</v>
       </c>
       <c r="O72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="P72" s="3">
         <v>-1100</v>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E76" s="3">
         <v>3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>800</v>
-      </c>
-      <c r="F76" s="3">
-        <v>700</v>
       </c>
       <c r="G76" s="3">
         <v>700</v>
       </c>
       <c r="H76" s="3">
+        <v>700</v>
+      </c>
+      <c r="I76" s="3">
         <v>800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4600</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>100</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,13 +4024,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3847,10 +4046,10 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,16 +4394,17 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -4200,8 +4421,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,17 +4812,20 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -4590,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -4599,25 +4845,28 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4642,8 +4891,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
@@ -4654,8 +4903,8 @@
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -4663,13 +4912,16 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4678,14 +4930,14 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>RAYT</t>
   </si>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>400</v>
@@ -794,7 +794,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
@@ -805,8 +805,8 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
@@ -844,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
@@ -855,8 +855,8 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
@@ -1063,11 +1063,11 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -1075,8 +1075,8 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1130,8 +1130,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>900</v>
       </c>
       <c r="E17" s="3">
         <v>800</v>
@@ -1143,7 +1143,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>700</v>
@@ -1180,8 +1180,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>100</v>
       </c>
       <c r="E18" s="3">
         <v>-300</v>
@@ -1250,8 +1250,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
@@ -1300,8 +1300,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>200</v>
       </c>
       <c r="E21" s="3">
         <v>200</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
@@ -1550,8 +1550,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
@@ -1600,8 +1600,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
@@ -1850,8 +1850,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>
@@ -1900,8 +1900,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
@@ -2000,8 +2000,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
@@ -2252,7 +2252,7 @@
         <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2351,8 +2351,8 @@
       <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2502,7 +2502,7 @@
         <v>900</v>
       </c>
       <c r="F48" s="3">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="G48" s="3">
         <v>800</v>
@@ -2802,7 +2802,7 @@
         <v>4400</v>
       </c>
       <c r="F54" s="3">
-        <v>4200</v>
+        <v>4800</v>
       </c>
       <c r="G54" s="3">
         <v>900</v>
@@ -2935,14 +2935,14 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -2986,13 +2986,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
         <v>500</v>
       </c>
       <c r="F59" s="3">
-        <v>3200</v>
+        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -3042,7 +3042,7 @@
         <v>800</v>
       </c>
       <c r="F60" s="3">
-        <v>3400</v>
+        <v>4200</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -3086,13 +3086,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3136,25 +3136,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         <v>800</v>
       </c>
       <c r="F66" s="3">
-        <v>3400</v>
+        <v>4400</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
@@ -3612,7 +3612,7 @@
         <v>-4500</v>
       </c>
       <c r="F72" s="3">
-        <v>-4600</v>
+        <v>-4000</v>
       </c>
       <c r="G72" s="3">
         <v>-2800</v>
@@ -3812,7 +3812,7 @@
         <v>3600</v>
       </c>
       <c r="F76" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G76" s="3">
         <v>700</v>
@@ -3960,8 +3960,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
@@ -4030,8 +4030,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4559,11 +4559,11 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -4830,10 +4830,10 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -4921,7 +4921,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>RAYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,127 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -786,10 +794,16 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,26 +811,26 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -835,38 +849,44 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
@@ -885,11 +905,17 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -955,11 +983,17 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,11 +1077,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1055,11 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1067,28 +1113,28 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1177,10 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,35 +1188,35 @@
         <v>900</v>
       </c>
       <c r="E17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>900</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1170,63 +1224,75 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,23 +1311,25 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1277,14 +1345,14 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1295,46 +1363,52 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-100</v>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
@@ -1343,10 +1417,16 @@
         <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1368,23 +1448,23 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1395,46 +1475,52 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="F23" s="3">
         <v>100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -1443,10 +1529,16 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,46 +1643,52 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="F26" s="3">
         <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -1593,48 +1697,54 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="F27" s="3">
         <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -1643,10 +1753,16 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,23 +1979,29 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1877,14 +2017,14 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -1895,46 +2035,52 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="F33" s="3">
         <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -1943,10 +2089,16 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,46 +2147,52 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="F35" s="3">
         <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -2043,65 +2201,77 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2312,10 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2149,17 +2323,17 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2188,10 +2362,16 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,26 +2420,32 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1100</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
@@ -2267,48 +2453,54 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
         <v>500</v>
       </c>
       <c r="F44" s="3">
+        <v>600</v>
+      </c>
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3">
+        <v>500</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2319,11 +2511,11 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2340,8 +2532,14 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2349,16 +2547,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2369,46 +2567,52 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E46" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="F46" s="3">
         <v>1400</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -2417,10 +2621,10 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2429,24 +2633,30 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2464,20 +2674,20 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2490,76 +2700,88 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F49" s="3">
         <v>2600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2569,11 +2791,11 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2590,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,13 +2924,19 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2717,17 +2957,17 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>11700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1800</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2740,8 +2980,14 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F54" s="3">
         <v>5500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4700</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3140,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2892,13 +3154,13 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
@@ -2909,11 +3171,11 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2930,28 +3192,34 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F58" s="3">
         <v>600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>3800</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -2960,46 +3228,52 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
@@ -3021,37 +3295,43 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
@@ -3060,28 +3340,34 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>100</v>
-      </c>
       <c r="R60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3089,7 +3375,7 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -3098,16 +3384,16 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3130,8 +3416,14 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3165,11 +3457,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -3180,8 +3472,14 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,25 +3640,31 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -3357,31 +3673,37 @@
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>100</v>
-      </c>
       <c r="R66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-1100</v>
       </c>
       <c r="R72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F76" s="3">
         <v>3900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>12900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4600</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,101 +4278,113 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="F81" s="3">
         <v>100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -4003,10 +4393,16 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4034,13 +4432,13 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4055,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,40 +4753,46 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -4367,16 +4801,22 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,16 +4835,18 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -4418,17 +4860,17 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4445,8 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5301,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4876,11 +5374,11 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -4894,11 +5392,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
@@ -4906,44 +5404,50 @@
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4963,6 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>RAYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,28 +758,28 @@
         <v>700</v>
       </c>
       <c r="E8" s="3">
+        <v>700</v>
+      </c>
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -784,11 +787,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -800,40 +803,43 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>300</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
@@ -855,41 +861,44 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>400</v>
       </c>
       <c r="F10" s="3">
+        <v>400</v>
+      </c>
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -911,11 +920,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,11 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1102,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1101,11 +1120,14 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,31 +1135,31 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3">
-        <v>100</v>
-      </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1204,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,38 +1214,38 @@
         <v>900</v>
       </c>
       <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1230,13 +1256,16 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,40 +1273,40 @@
         <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -1286,13 +1315,16 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,14 +1358,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1351,11 +1384,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,60 +1414,63 @@
         <v>-100</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1454,8 +1493,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1463,11 +1502,11 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1481,8 +1520,11 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,10 +1532,10 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="G23" s="3">
         <v>100</v>
@@ -1502,43 +1544,46 @@
         <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1658,10 +1709,10 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="G26" s="3">
         <v>100</v>
@@ -1670,43 +1721,46 @@
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,10 +1768,10 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="G27" s="3">
         <v>100</v>
@@ -1726,43 +1780,46 @@
         <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,14 +2066,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2023,11 +2092,11 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2041,8 +2110,11 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2050,10 +2122,10 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="G33" s="3">
         <v>100</v>
@@ -2062,43 +2134,46 @@
         <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2162,10 +2240,10 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="G35" s="3">
         <v>100</v>
@@ -2174,104 +2252,110 @@
         <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,29 +2399,30 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2368,10 +2454,13 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,29 +2515,32 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
@@ -2459,51 +2551,54 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E44" s="3">
         <v>500</v>
       </c>
       <c r="F44" s="3">
+        <v>500</v>
+      </c>
+      <c r="G44" s="3">
         <v>600</v>
-      </c>
-      <c r="G44" s="3">
-        <v>500</v>
       </c>
       <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>500</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -2517,8 +2612,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2538,13 +2633,16 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2553,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2573,50 +2671,53 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
@@ -2627,7 +2728,7 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2639,19 +2740,22 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2680,17 +2784,17 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2706,47 +2810,50 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E48" s="3">
         <v>4300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>800</v>
       </c>
       <c r="J48" s="3">
         <v>800</v>
       </c>
       <c r="K48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L48" s="3">
         <v>900</v>
       </c>
       <c r="M48" s="3">
+        <v>900</v>
+      </c>
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1100</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
@@ -2756,14 +2863,17 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,20 +2881,20 @@
         <v>2100</v>
       </c>
       <c r="E49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F49" s="3">
         <v>2200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2797,8 +2907,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,16 +3046,19 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2963,14 +3082,14 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>11700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>900</v>
       </c>
       <c r="J54" s="3">
         <v>900</v>
       </c>
       <c r="K54" s="3">
+        <v>900</v>
+      </c>
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4700</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,28 +3271,29 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3">
+        <v>100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -3177,8 +3307,8 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3198,85 +3328,91 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E58" s="3">
         <v>2400</v>
       </c>
       <c r="F58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
-        <v>100</v>
-      </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>500</v>
       </c>
       <c r="G59" s="3">
         <v>500</v>
       </c>
       <c r="H59" s="3">
+        <v>500</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
@@ -3301,73 +3437,79 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
-        <v>100</v>
-      </c>
       <c r="S60" s="3">
         <v>100</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3381,22 +3523,22 @@
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3463,8 +3608,8 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,28 +3800,31 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
@@ -3679,31 +3836,34 @@
         <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
-        <v>100</v>
-      </c>
       <c r="S66" s="3">
         <v>100</v>
       </c>
       <c r="T66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,55 +4118,58 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-2800</v>
       </c>
       <c r="J72" s="3">
         <v>-2800</v>
       </c>
       <c r="K72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="L72" s="3">
         <v>-2700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q72" s="3">
         <v>-1200</v>
       </c>
       <c r="R72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="S72" s="3">
         <v>-1100</v>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E76" s="3">
         <v>4500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>700</v>
       </c>
       <c r="J76" s="3">
         <v>700</v>
       </c>
       <c r="K76" s="3">
+        <v>700</v>
+      </c>
+      <c r="L76" s="3">
         <v>800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4600</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
       </c>
       <c r="R76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S76" s="3">
         <v>-100</v>
       </c>
       <c r="T76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4354,10 +4548,10 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="G81" s="3">
         <v>100</v>
@@ -4366,43 +4560,46 @@
         <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,31 +4630,31 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,20 +5056,21 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4860,11 +5080,11 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -4872,8 +5092,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,25 +5231,28 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1800</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5035,34 +5264,37 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,37 +5549,40 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -5346,25 +5591,28 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5374,14 +5622,14 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -5398,8 +5646,8 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
@@ -5410,8 +5658,8 @@
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5419,25 +5667,28 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -5446,11 +5697,11 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>RAYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,128 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>700</v>
       </c>
       <c r="F8" s="3">
+        <v>700</v>
+      </c>
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>400</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -790,11 +794,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -806,43 +810,46 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>300</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>300</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
@@ -864,44 +871,47 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>400</v>
       </c>
       <c r="F10" s="3">
         <v>400</v>
       </c>
       <c r="G10" s="3">
+        <v>400</v>
+      </c>
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
@@ -923,11 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,11 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,8 +1125,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1123,11 +1143,14 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1138,31 +1161,31 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3">
-        <v>100</v>
-      </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,50 +1231,51 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>900</v>
       </c>
       <c r="F17" s="3">
+        <v>900</v>
+      </c>
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1259,13 +1286,16 @@
         <v>0</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,40 +1306,40 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
@@ -1318,13 +1348,16 @@
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,29 +1379,30 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1387,11 +1421,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1405,75 +1439,81 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-100</v>
+        <v>400</v>
       </c>
       <c r="E21" s="3">
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1496,8 +1536,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1505,11 +1545,11 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1523,23 +1563,26 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
         <v>-300</v>
       </c>
       <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
@@ -1547,43 +1590,46 @@
         <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,23 +1749,26 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
@@ -1724,58 +1776,61 @@
         <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
       </c>
       <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
@@ -1783,43 +1838,46 @@
         <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,29 +2121,32 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2095,11 +2165,11 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2113,23 +2183,26 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
       </c>
       <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
@@ -2137,43 +2210,46 @@
         <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,23 +2307,26 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
       </c>
       <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
@@ -2255,107 +2334,113 @@
         <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2409,23 +2496,23 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2457,10 +2544,13 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2527,23 +2620,23 @@
         <v>500</v>
       </c>
       <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
@@ -2554,31 +2647,34 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2586,22 +2682,22 @@
         <v>400</v>
       </c>
       <c r="E44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>500</v>
       </c>
       <c r="G44" s="3">
+        <v>500</v>
+      </c>
+      <c r="H44" s="3">
         <v>600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>500</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>500</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -2615,8 +2711,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2645,7 +2744,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2654,13 +2753,13 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2674,53 +2773,56 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
@@ -2731,7 +2833,7 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2743,19 +2845,22 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2787,17 +2892,17 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1800</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2813,50 +2918,53 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E48" s="3">
         <v>4800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>800</v>
       </c>
       <c r="K48" s="3">
         <v>800</v>
       </c>
       <c r="L48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M48" s="3">
         <v>900</v>
       </c>
       <c r="N48" s="3">
+        <v>900</v>
+      </c>
+      <c r="O48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1100</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
@@ -2866,38 +2974,41 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="E49" s="3">
         <v>2100</v>
       </c>
       <c r="F49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G49" s="3">
         <v>2200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2910,8 +3021,8 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,19 +3166,22 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>800</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3085,14 +3205,14 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>11700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E54" s="3">
         <v>8000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>900</v>
       </c>
       <c r="K54" s="3">
         <v>900</v>
       </c>
       <c r="L54" s="3">
+        <v>900</v>
+      </c>
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4700</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
       <c r="U54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3281,22 +3412,22 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="J57" s="3">
+        <v>100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
@@ -3310,8 +3441,8 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3331,91 +3462,97 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
         <v>2600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2400</v>
       </c>
       <c r="F58" s="3">
         <v>2400</v>
       </c>
       <c r="G58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
-        <v>100</v>
-      </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>500</v>
       </c>
       <c r="H59" s="3">
         <v>500</v>
       </c>
       <c r="I59" s="3">
+        <v>500</v>
+      </c>
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
@@ -3440,76 +3577,82 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
-        <v>100</v>
-      </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
-        <v>100</v>
-      </c>
       <c r="T60" s="3">
         <v>100</v>
       </c>
       <c r="U60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3526,22 +3669,22 @@
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3611,8 +3757,8 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,31 +3958,34 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
@@ -3839,31 +3997,34 @@
         <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
-        <v>100</v>
-      </c>
       <c r="T66" s="3">
         <v>100</v>
       </c>
       <c r="U66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,58 +4292,61 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-2800</v>
       </c>
       <c r="K72" s="3">
         <v>-2800</v>
       </c>
       <c r="L72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="M72" s="3">
         <v>-2700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-1200</v>
       </c>
       <c r="R72" s="3">
         <v>-1200</v>
       </c>
       <c r="S72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="T72" s="3">
         <v>-1100</v>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E76" s="3">
         <v>4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>700</v>
       </c>
       <c r="K76" s="3">
         <v>700</v>
       </c>
       <c r="L76" s="3">
+        <v>700</v>
+      </c>
+      <c r="M76" s="3">
         <v>800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4600</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
       <c r="Q76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R76" s="3">
         <v>-200</v>
       </c>
       <c r="S76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T76" s="3">
         <v>-100</v>
       </c>
       <c r="U76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,87 +4664,93 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
       </c>
       <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
@@ -4563,43 +4758,46 @@
         <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4633,31 +4832,31 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,23 +5277,24 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5083,11 +5304,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5095,8 +5316,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,28 +5461,31 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1800</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5267,34 +5497,37 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,40 +5795,43 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -5594,30 +5840,33 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5625,14 +5874,14 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -5649,8 +5898,8 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
@@ -5661,8 +5910,8 @@
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -5670,28 +5919,31 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -5700,11 +5952,11 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>RAYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,151 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
+      <c r="Q8" s="3">
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -806,59 +817,68 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>500</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>400</v>
+      </c>
+      <c r="K9" s="3">
+        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
@@ -874,53 +894,62 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>500</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
@@ -936,11 +965,20 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +1001,11 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1022,11 +1063,20 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,31 +1137,40 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1128,14 +1187,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1146,46 +1205,55 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="3">
-        <v>100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>100</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1194,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1211,8 +1279,17 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1309,153 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1400</v>
       </c>
       <c r="H17" s="3">
         <v>900</v>
       </c>
       <c r="I17" s="3">
+        <v>900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K17" s="3">
+        <v>900</v>
+      </c>
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
+      <c r="T18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,38 +1478,41 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1424,8 +1525,8 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1433,8 +1534,8 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
+      <c r="T20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1442,87 +1543,105 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1539,17 +1658,17 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1557,8 +1676,8 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
@@ -1566,70 +1685,88 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1827,17 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1898,159 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2111,17 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2182,17 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2253,17 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,38 +2324,47 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2168,8 +2377,8 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2177,8 +2386,8 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
+      <c r="T32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2186,70 +2395,88 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2537,164 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2717,11 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2744,11 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2499,13 +2759,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -2514,13 +2774,13 @@
         <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2547,10 +2807,19 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,55 +2880,64 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2673,8 +2951,17 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2682,16 +2969,16 @@
         <v>400</v>
       </c>
       <c r="E44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F44" s="3">
         <v>500</v>
       </c>
       <c r="G44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H44" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
@@ -2699,14 +2986,14 @@
       <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>600</v>
+      </c>
+      <c r="L44" s="3">
+        <v>500</v>
+      </c>
+      <c r="M44" s="3">
+        <v>500</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
@@ -2714,14 +3001,14 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2735,40 +3022,49 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -2776,91 +3072,109 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2895,23 +3209,23 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="R47" s="3">
         <v>300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="S47" s="3">
         <v>1800</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2921,117 +3235,135 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G48" s="3">
         <v>4900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>4800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>4300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>3100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>1000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>1100</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G49" s="3">
         <v>1500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>2100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>2100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>2200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>2600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>2500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>2000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3045,8 +3377,17 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3448,17 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,28 +3519,37 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -3208,20 +3567,20 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>11700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="S52" s="3">
         <v>1800</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3231,8 +3590,17 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3661,88 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>14200</v>
+      </c>
+      <c r="G54" s="3">
         <v>8300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>8000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>7900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>7200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>5500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>4400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>4800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>13000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>4700</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
-      <c r="V54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3765,11 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,40 +3792,43 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>100</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
@@ -3444,14 +3836,14 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3465,103 +3857,121 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>2600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>3800</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
-        <v>100</v>
-      </c>
-      <c r="U58" s="3">
-        <v>100</v>
-      </c>
-      <c r="V58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>900</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>500</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
+        <v>500</v>
+      </c>
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
@@ -3580,8 +3990,8 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
+      <c r="T59" s="3">
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -3589,81 +3999,99 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
-        <v>100</v>
-      </c>
-      <c r="U60" s="3">
-        <v>100</v>
-      </c>
-      <c r="V60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>4800</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
@@ -3672,19 +4100,19 @@
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3693,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3713,31 +4141,40 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3760,14 +4197,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -3775,8 +4212,17 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4283,17 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4354,17 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4425,88 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G66" s="3">
         <v>3700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>4400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R66" s="3">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
-        <v>100</v>
-      </c>
-      <c r="U66" s="3">
-        <v>100</v>
-      </c>
-      <c r="V66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>100</v>
+      </c>
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4529,11 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4594,17 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4665,17 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4736,17 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4807,88 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-4400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-4500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-4200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-3900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-3700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-4500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-4000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-2800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-2800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-2700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-2500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-2300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-1300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-1200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-1200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-1100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-1100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4949,17 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +5020,17 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +5091,88 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G76" s="3">
         <v>4600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>4500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>3900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>12900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>4600</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>-100</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5233,164 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,52 +5413,55 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4882,8 +5478,17 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5549,17 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5620,17 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5691,17 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5762,17 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,40 +5833,49 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>200</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>-400</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M89" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -5234,7 +5884,7 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5243,7 +5893,7 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5252,10 +5902,19 @@
         <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5937,11 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5287,28 +5949,28 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5316,17 +5978,17 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5340,8 +6002,17 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +6073,17 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +6144,88 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-1800</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6248,11 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6313,17 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6384,17 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6455,17 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6526,17 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5807,90 +6544,99 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5901,29 +6647,38 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5931,41 +6686,41 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6737,15 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>RAYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,155 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="3">
         <v>1400</v>
       </c>
       <c r="F8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>700</v>
       </c>
       <c r="I8" s="3">
         <v>700</v>
       </c>
       <c r="J8" s="3">
+        <v>700</v>
+      </c>
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>400</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -817,11 +821,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
@@ -833,55 +837,58 @@
         <v>0</v>
       </c>
       <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
-      </c>
-      <c r="K9" s="3">
-        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>300</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
@@ -903,56 +910,59 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>400</v>
       </c>
       <c r="J10" s="3">
         <v>400</v>
       </c>
       <c r="K10" s="3">
+        <v>400</v>
+      </c>
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
@@ -974,11 +984,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1072,11 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,20 +1163,23 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>-800</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1172,8 +1192,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1196,8 +1216,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1214,11 +1234,14 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1229,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1241,31 +1264,31 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3">
-        <v>100</v>
-      </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,62 +1338,63 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>900</v>
       </c>
       <c r="I17" s="3">
         <v>900</v>
       </c>
       <c r="J17" s="3">
+        <v>900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
@@ -1378,27 +1405,30 @@
         <v>0</v>
       </c>
       <c r="X17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
@@ -1407,40 +1437,40 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
+      <c r="U18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
@@ -1449,13 +1479,16 @@
         <v>0</v>
       </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,41 +1514,42 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>100</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>100</v>
-      </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1534,11 +1568,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1552,79 +1586,85 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>100</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>100</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3">
-        <v>0</v>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1632,19 +1672,19 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1667,8 +1707,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1676,11 +1716,11 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
@@ -1694,8 +1734,11 @@
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1703,26 +1746,26 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
       </c>
       <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
         <v>100</v>
       </c>
@@ -1730,43 +1773,46 @@
         <v>100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,35 +1956,38 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
         <v>100</v>
       </c>
@@ -1943,70 +1995,73 @@
         <v>100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
         <v>100</v>
       </c>
@@ -2014,43 +2069,46 @@
         <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,41 +2400,44 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-100</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2386,11 +2456,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2404,35 +2474,38 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
         <v>100</v>
       </c>
@@ -2440,43 +2513,46 @@
         <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,35 +2622,38 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
         <v>100</v>
       </c>
@@ -2582,119 +2661,125 @@
         <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2833,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2759,32 +2846,32 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2816,10 +2903,13 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,44 +2979,47 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E43" s="3">
         <v>3800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>500</v>
       </c>
       <c r="H43" s="3">
         <v>500</v>
       </c>
       <c r="I43" s="3">
+        <v>500</v>
+      </c>
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
@@ -2937,31 +3030,34 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2969,34 +3065,34 @@
         <v>400</v>
       </c>
       <c r="E44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>500</v>
       </c>
       <c r="G44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
       </c>
       <c r="I44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J44" s="3">
         <v>500</v>
       </c>
       <c r="K44" s="3">
+        <v>500</v>
+      </c>
+      <c r="L44" s="3">
         <v>600</v>
-      </c>
-      <c r="L44" s="3">
-        <v>500</v>
       </c>
       <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>500</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -3010,8 +3106,8 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3043,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -3052,7 +3151,7 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -3061,13 +3160,13 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -3081,65 +3180,68 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>3800</v>
       </c>
       <c r="F46" s="3">
         <v>3800</v>
       </c>
       <c r="G46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
@@ -3150,7 +3252,7 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -3162,19 +3264,22 @@
         <v>0</v>
       </c>
       <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
         <v>0</v>
       </c>
       <c r="Y46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3218,17 +3323,17 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1800</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3244,62 +3349,65 @@
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1400</v>
-      </c>
-      <c r="N48" s="3">
-        <v>800</v>
       </c>
       <c r="O48" s="3">
         <v>800</v>
       </c>
       <c r="P48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q48" s="3">
         <v>900</v>
       </c>
       <c r="R48" s="3">
+        <v>900</v>
+      </c>
+      <c r="S48" s="3">
         <v>1000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1100</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
@@ -3309,14 +3417,17 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3324,35 +3435,35 @@
         <v>2700</v>
       </c>
       <c r="E49" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F49" s="3">
         <v>2600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2100</v>
       </c>
       <c r="I49" s="3">
         <v>2100</v>
       </c>
       <c r="J49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K49" s="3">
         <v>2200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3365,8 +3476,8 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3537,22 +3657,22 @@
         <v>1800</v>
       </c>
       <c r="E52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3576,14 +3696,14 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>11700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1800</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E54" s="3">
         <v>10300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>900</v>
       </c>
       <c r="O54" s="3">
         <v>900</v>
       </c>
       <c r="P54" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4700</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
       <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
       <c r="X54" s="3">
         <v>0</v>
       </c>
       <c r="Y54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3804,34 +3935,34 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3">
+        <v>100</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
@@ -3845,8 +3976,8 @@
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -3866,115 +3997,121 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2400</v>
       </c>
       <c r="J58" s="3">
         <v>2400</v>
       </c>
       <c r="K58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
-        <v>100</v>
-      </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>400</v>
       </c>
-      <c r="W58" s="3">
-        <v>100</v>
-      </c>
       <c r="X58" s="3">
         <v>100</v>
       </c>
       <c r="Y58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>500</v>
       </c>
       <c r="L59" s="3">
         <v>500</v>
       </c>
       <c r="M59" s="3">
+        <v>500</v>
+      </c>
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
@@ -3999,88 +4136,94 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
-        <v>100</v>
-      </c>
       <c r="S60" s="3">
         <v>100</v>
       </c>
       <c r="T60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
-        <v>100</v>
-      </c>
       <c r="X60" s="3">
         <v>100</v>
       </c>
       <c r="Y60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4091,10 +4234,10 @@
         <v>300</v>
       </c>
       <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
         <v>4800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
@@ -4109,22 +4252,22 @@
         <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4159,13 +4305,13 @@
         <v>700</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -4176,8 +4322,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4206,8 +4352,8 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,8 +4589,11 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4443,34 +4601,34 @@
         <v>4000</v>
       </c>
       <c r="E66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
@@ -4482,31 +4640,34 @@
         <v>200</v>
       </c>
       <c r="R66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>100</v>
       </c>
       <c r="T66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
       </c>
-      <c r="W66" s="3">
-        <v>100</v>
-      </c>
       <c r="X66" s="3">
         <v>100</v>
       </c>
       <c r="Y66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,70 +4987,73 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-2800</v>
       </c>
       <c r="O72" s="3">
         <v>-2800</v>
       </c>
       <c r="P72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-1200</v>
       </c>
       <c r="V72" s="3">
         <v>-1200</v>
       </c>
       <c r="W72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="X72" s="3">
         <v>-1100</v>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E76" s="3">
         <v>6200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>700</v>
       </c>
       <c r="O76" s="3">
         <v>700</v>
       </c>
       <c r="P76" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4600</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
       <c r="U76" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V76" s="3">
         <v>-200</v>
       </c>
       <c r="W76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X76" s="3">
         <v>-100</v>
       </c>
       <c r="Y76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,111 +5431,117 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
         <v>100</v>
       </c>
@@ -5354,43 +5549,46 @@
         <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5428,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -5440,31 +5639,31 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,35 +6160,36 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>-700</v>
       </c>
       <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5978,11 +6199,11 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -5990,8 +6211,8 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,40 +6380,43 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6198,34 +6428,37 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
         <v>300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,52 +6778,55 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>4900</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
@@ -6589,25 +6835,28 @@
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6618,28 +6867,28 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -6656,8 +6905,8 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>4</v>
@@ -6668,8 +6917,8 @@
       <c r="V101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6686,31 +6938,31 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -6719,11 +6971,11 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>RAYT</t>
   </si>
@@ -1344,8 +1344,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>1300</v>
       </c>
       <c r="E17" s="3">
         <v>1700</v>
@@ -1418,8 +1418,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
         <v>-300</v>
@@ -1520,8 +1520,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1594,8 +1594,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
         <v>-200</v>
@@ -1964,8 +1964,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
@@ -2038,8 +2038,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
@@ -2408,8 +2408,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -2482,8 +2482,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
@@ -2630,8 +2630,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
@@ -5518,8 +5518,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
